--- a/data/nutrients.xlsx
+++ b/data/nutrients.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ppawand/Desktop/MS data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ppawand/Desktop/MSProject/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F33D83F-C430-8B4E-A507-96D11FF7CB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F2EE1C-43E3-2B4C-B015-BBF8A41BB511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" xr2:uid="{961944ED-8D1E-4D57-9DCD-1272ABB8068C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="48">
   <si>
     <t>ID</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>Irrigated</t>
+  </si>
+  <si>
+    <t>totalN</t>
   </si>
 </sst>
 </file>
@@ -526,16 +529,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B841147E-2F38-4625-BA48-4CB1840F8040}">
-  <dimension ref="A1:X96"/>
+  <dimension ref="A1:Y96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,58 +561,61 @@
         <v>44</v>
       </c>
       <c r="H1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>17</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>25</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>28</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>29</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>30</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>31</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>32</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>41</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -632,58 +638,62 @@
         <v>4.32</v>
       </c>
       <c r="H2">
+        <f>F2+G2</f>
+        <v>10.98</v>
+      </c>
+      <c r="I2">
         <v>25</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1032</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1577</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>3660</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>25</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>10.6</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>1.7</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>160</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>70</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>2.8</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>242</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>0.3</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>6</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>18.8</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>0.17</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>20.62</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -706,58 +716,62 @@
         <v>1.47</v>
       </c>
       <c r="H3">
+        <f t="shared" ref="H3:H66" si="0">F3+G3</f>
+        <v>8.64</v>
+      </c>
+      <c r="I3">
         <v>31</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1001</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1520</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>3640</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>8.5</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>18</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>7.4</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>1.7</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>166</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>65</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>3</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>78</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.38</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>8</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>18.100000000000001</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.10100000000000001</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>19.87</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -780,58 +794,62 @@
         <v>1.47</v>
       </c>
       <c r="H4">
+        <f t="shared" si="0"/>
+        <v>4.28</v>
+      </c>
+      <c r="I4">
         <v>32</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>978</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1464</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>3478</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>8.5</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>16</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>7.4</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1.8</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>161</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>68</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2.8</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>85</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0.39</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>8</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>17.8</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>0.11799999999999999</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>20.85</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -854,58 +872,62 @@
         <v>1.41</v>
       </c>
       <c r="H5">
+        <f t="shared" si="0"/>
+        <v>8.35</v>
+      </c>
+      <c r="I5">
         <v>22</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>913</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>1831</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>3405</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>8.6</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>22</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>9.4</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1.8</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>161</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>68</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>2.8</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>127</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.39</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>8</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>18.8</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>0.16900000000000001</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>20.55</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -928,58 +950,62 @@
         <v>2.4</v>
       </c>
       <c r="H6">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+      <c r="I6">
         <v>33</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>998</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1526</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>3555</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>8.4</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>18</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>7.4</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>1.7</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>168</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>73</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>3</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>65</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>6</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>18.3</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>0.106</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>20.97</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1002,58 +1028,62 @@
         <v>1.33</v>
       </c>
       <c r="H7">
+        <f t="shared" si="0"/>
+        <v>5.78</v>
+      </c>
+      <c r="I7">
         <v>24</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>981</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>1572</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>3485</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>8.6</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>19</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>8.6</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>1.6</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>160</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>71</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>2.9</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>151</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>0.34</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>7</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>18</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>0.121</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>20.239999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1076,58 +1106,62 @@
         <v>1.86</v>
       </c>
       <c r="H8">
+        <f t="shared" si="0"/>
+        <v>7.0100000000000007</v>
+      </c>
+      <c r="I8">
         <v>24</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1084</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>1579</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>3641</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>21</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>10.199999999999999</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>1.6</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>161</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>75</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>2.9</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>200</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>0.34</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>7</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>19.100000000000001</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>0.10100000000000001</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>20.75</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1150,58 +1184,62 @@
         <v>1.76</v>
       </c>
       <c r="H9">
+        <f t="shared" si="0"/>
+        <v>4.33</v>
+      </c>
+      <c r="I9">
         <v>25</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>913</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1557</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>3766</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>8.6</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>16</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>7.7</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>1.6</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>164</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>63</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>3</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>102</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.34</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>7</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>18.5</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>0.153</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>20.02</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1224,58 +1262,62 @@
         <v>3.9</v>
       </c>
       <c r="H10">
+        <f t="shared" si="0"/>
+        <v>12.32</v>
+      </c>
+      <c r="I10">
         <v>23</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>841</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>1591</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>3262</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>8.4</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>25</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>9.4</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>170</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>98</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>3</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>218</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>0.32</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>6</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>17.5</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>0.17</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>20.62</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1298,58 +1340,62 @@
         <v>2.42</v>
       </c>
       <c r="H11">
+        <f t="shared" si="0"/>
+        <v>10.959999999999999</v>
+      </c>
+      <c r="I11">
         <v>31</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1027</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>1610</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>3803</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>20</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>7.5</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>2.5</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>172</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>70</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>3.3</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>92</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>0.39</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>8</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>18.899999999999999</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>0.10100000000000001</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>19.87</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1372,58 +1418,62 @@
         <v>3.04</v>
       </c>
       <c r="H12">
+        <f t="shared" si="0"/>
+        <v>9.1900000000000013</v>
+      </c>
+      <c r="I12">
         <v>31</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>929</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1465</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>3490</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>8.5</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>24</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>7.6</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>2.4</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>154</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>68</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>3.1</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>107</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>0.36</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>7</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>17.899999999999999</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>0.11799999999999999</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>20.85</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1446,58 +1496,62 @@
         <v>2.44</v>
       </c>
       <c r="H13">
+        <f t="shared" si="0"/>
+        <v>10.59</v>
+      </c>
+      <c r="I13">
         <v>20</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>903</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>1806</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>3296</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>25</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>9.4</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>1.9</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>162</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>78</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>3.5</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>227</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>0.32</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>6</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>18.600000000000001</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>0.16900000000000001</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>20.55</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1520,58 +1574,62 @@
         <v>2.5099999999999998</v>
       </c>
       <c r="H14">
+        <f t="shared" si="0"/>
+        <v>7.41</v>
+      </c>
+      <c r="I14">
         <v>32</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>991</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>1573</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>3539</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>8.4</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>23</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>7.8</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>1.9</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>165</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>66</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>3.2</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>101</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>6</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>18.5</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>0.106</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>20.97</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1594,58 +1652,62 @@
         <v>2.14</v>
       </c>
       <c r="H15">
+        <f t="shared" si="0"/>
+        <v>10.43</v>
+      </c>
+      <c r="I15">
         <v>23</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>873</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>1959</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>2248</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>8.5</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>30</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>10.199999999999999</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>1.9</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>165</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>69</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>3.3</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>192</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>0.26</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>5</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>19.7</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>0.121</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>20.239999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -1668,58 +1730,62 @@
         <v>2.08</v>
       </c>
       <c r="H16">
+        <f t="shared" si="0"/>
+        <v>7.57</v>
+      </c>
+      <c r="I16">
         <v>21</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>896</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1783</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3229</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>8.6</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>34</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>9.5</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>155</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>68</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>3.1</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>215</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>0.34</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>7</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>18.3</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>0.10100000000000001</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>20.75</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -1742,58 +1808,62 @@
         <v>2.1</v>
       </c>
       <c r="H17">
+        <f t="shared" si="0"/>
+        <v>9.48</v>
+      </c>
+      <c r="I17">
         <v>28</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>898</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1513</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>3534</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>20</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>7.7</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1.8</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>154</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>64</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>2.9</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>112</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>0.36</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>7</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>18.100000000000001</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>0.153</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>20.02</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1816,58 +1886,62 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="H18">
+        <f t="shared" si="0"/>
+        <v>9.870000000000001</v>
+      </c>
+      <c r="I18">
         <v>33</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1336</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1632</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>3673</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>8.5</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>24</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>9.9</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>1.8</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>170</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>70</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>3.2</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>140</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>0.46</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>9</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>19.2</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>0.16800000000000001</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>21.16</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1890,58 +1964,62 @@
         <v>2.31</v>
       </c>
       <c r="H19">
+        <f t="shared" si="0"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I19">
         <v>34</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>1106</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1823</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>3846</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>8.5</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>23</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>8.3000000000000007</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>2.1</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>164</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>67</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>3.2</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>96</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>0.44</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>9</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>20.399999999999999</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>0.20100000000000001</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>19.61</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1964,58 +2042,62 @@
         <v>2.23</v>
       </c>
       <c r="H20">
+        <f t="shared" si="0"/>
+        <v>5.52</v>
+      </c>
+      <c r="I20">
         <v>32</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>1162</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>1676</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>3621</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>19</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>9.8000000000000007</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>1.8</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>162</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>71</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>3.1</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>160</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.41</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>8</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>19.5</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.13700000000000001</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>21.01</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -2038,58 +2120,62 @@
         <v>2.66</v>
       </c>
       <c r="H21">
+        <f t="shared" si="0"/>
+        <v>12.53</v>
+      </c>
+      <c r="I21">
         <v>37</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>1290</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>1941</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>4190</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>8.5</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>24</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>9.9</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>176</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>67</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>3.3</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>112</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.51</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>10</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>22.1</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>20.86</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2112,58 +2198,62 @@
         <v>2.23</v>
       </c>
       <c r="H22">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+      <c r="I22">
         <v>36</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>991</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1990</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>3984</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>29</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>10.6</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>1.7</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>160</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>70</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>3.2</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>216</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.46</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>9</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>21.2</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.16800000000000001</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>21.16</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -2186,58 +2276,62 @@
         <v>2</v>
       </c>
       <c r="H23">
+        <f t="shared" si="0"/>
+        <v>5.83</v>
+      </c>
+      <c r="I23">
         <v>32</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1139</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>1772</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>3853</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>8.5</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>20</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>8.6</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>169</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>69</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>3.3</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>76</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.45</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>9</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>20.2</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.20100000000000001</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>19.61</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2260,58 +2354,62 @@
         <v>3.22</v>
       </c>
       <c r="H24">
+        <f t="shared" si="0"/>
+        <v>10.040000000000001</v>
+      </c>
+      <c r="I24">
         <v>28</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>1156</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1630</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>3966</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>34</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>10.4</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>2.1</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>160</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>71</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>3.2</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>249</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>0.35</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>7</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>19.899999999999999</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>0.13700000000000001</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>21.01</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -2334,58 +2432,62 @@
         <v>2.76</v>
       </c>
       <c r="H25">
+        <f t="shared" si="0"/>
+        <v>9.25</v>
+      </c>
+      <c r="I25">
         <v>33</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1175</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>1608</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>3733</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>27</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>10.199999999999999</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>1.8</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>162</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>73</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>3.3</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>237</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>0.41</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>8</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>19.3</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>20.86</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2408,58 +2510,62 @@
         <v>2.15</v>
       </c>
       <c r="H26">
+        <f t="shared" si="0"/>
+        <v>6.4700000000000006</v>
+      </c>
+      <c r="I26">
         <v>29</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1153</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>1855</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>3211</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>22</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>9.6999999999999993</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>1.9</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>163</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>68</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>3.2</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>152</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.38</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>8</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>18.8</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.16800000000000001</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>21.16</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -2482,58 +2588,62 @@
         <v>2.14</v>
       </c>
       <c r="H27">
+        <f t="shared" si="0"/>
+        <v>12.59</v>
+      </c>
+      <c r="I27">
         <v>29</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1102</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>1830</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>3869</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>8.6</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>33</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>10.4</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>2.4</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>161</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>66</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>3.9</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>204</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>0.4</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>8</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>20.399999999999999</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.20100000000000001</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>19.61</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2556,58 +2666,62 @@
         <v>2.13</v>
       </c>
       <c r="H28">
+        <f t="shared" si="0"/>
+        <v>6.36</v>
+      </c>
+      <c r="I28">
         <v>30</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>1124</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>1723</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>3454</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>25</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>10.4</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>1.9</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>159</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>69</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>3.2</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>242</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>0.4</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>8</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>19</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>0.13700000000000001</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>21.01</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -2630,58 +2744,62 @@
         <v>1.74</v>
       </c>
       <c r="H29">
+        <f t="shared" si="0"/>
+        <v>12.99</v>
+      </c>
+      <c r="I29">
         <v>32</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>960</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>1911</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>3804</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>8.5</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>33</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>9.9</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>2.5</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>163</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>73</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>4.0999999999999996</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>232</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>0.37</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>7</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>20.8</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>20.86</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -2704,58 +2822,62 @@
         <v>2.95</v>
       </c>
       <c r="H30">
+        <f t="shared" si="0"/>
+        <v>6.71</v>
+      </c>
+      <c r="I30">
         <v>36</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>1103</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>2023</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>4429</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>28</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>11.4</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>1.9</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>173</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>80</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>3.7</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>299</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>0.45</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>9</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>22.8</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>0.16800000000000001</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>21.16</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -2778,58 +2900,62 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="H31">
+        <f t="shared" si="0"/>
+        <v>6.5400000000000009</v>
+      </c>
+      <c r="I31">
         <v>32</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>1181</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>1855</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>3832</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>20</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>11.1</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>2.1</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>175</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>79</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>3.6</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>192</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>0.48</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>10</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>20.8</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>0.20100000000000001</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>19.61</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -2852,58 +2978,62 @@
         <v>2.64</v>
       </c>
       <c r="H32">
+        <f t="shared" si="0"/>
+        <v>9.61</v>
+      </c>
+      <c r="I32">
         <v>36</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>1122</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>1976</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>3891</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>24</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>10.5</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>174</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>84</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>3.6</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>214</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>0.42</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>8</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>21.1</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>0.13700000000000001</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>21.01</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -2926,58 +3056,62 @@
         <v>2.25</v>
       </c>
       <c r="H33">
+        <f t="shared" si="0"/>
+        <v>9.24</v>
+      </c>
+      <c r="I33">
         <v>29</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>1158</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>1916</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>3718</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>8.6</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>26</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>11.1</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>2</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>175</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>81</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>3.8</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>242</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>0.44</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>9</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>20.9</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>20.86</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -3000,58 +3134,62 @@
         <v>2.58</v>
       </c>
       <c r="H34">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I34">
         <v>42</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>1090</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>1936</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>4081</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>8.5</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>20</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>7.6</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>1.9</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>177</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>65</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>3.3</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>55</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.33</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>7</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>21.4</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.155</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>19.48</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -3074,58 +3212,62 @@
         <v>2.14</v>
       </c>
       <c r="H35">
+        <f t="shared" si="0"/>
+        <v>5.95</v>
+      </c>
+      <c r="I35">
         <v>37</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>906</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>2307</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>3775</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>20</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>11.2</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>1.7</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>180</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>68</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>3.4</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>231</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>0.27</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>5</v>
       </c>
-      <c r="V35">
+      <c r="W35">
         <v>22.3</v>
       </c>
-      <c r="W35">
+      <c r="X35">
         <v>0.154</v>
       </c>
-      <c r="X35">
+      <c r="Y35">
         <v>20.75</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -3148,58 +3290,62 @@
         <v>2.58</v>
       </c>
       <c r="H36">
+        <f t="shared" si="0"/>
+        <v>22.04</v>
+      </c>
+      <c r="I36">
         <v>60</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>1228</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>1585</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>4544</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>8.4</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>31</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>8.1</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>3.3</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>182</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>61</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>3.5</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>222</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>0.53</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>11</v>
       </c>
-      <c r="V36">
+      <c r="W36">
         <v>21.6</v>
       </c>
-      <c r="W36">
+      <c r="X36">
         <v>0.16700000000000001</v>
       </c>
-      <c r="X36">
+      <c r="Y36">
         <v>20.32</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -3222,58 +3368,62 @@
         <v>2.63</v>
       </c>
       <c r="H37">
+        <f t="shared" si="0"/>
+        <v>5.29</v>
+      </c>
+      <c r="I37">
         <v>36</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>1146</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>2115</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>4069</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>22</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>11.9</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>1.7</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>181</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>70</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>3.6</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>232</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>0.39</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>8</v>
       </c>
-      <c r="V37">
+      <c r="W37">
         <v>22.6</v>
       </c>
-      <c r="W37">
+      <c r="X37">
         <v>0.16</v>
       </c>
-      <c r="X37">
+      <c r="Y37">
         <v>20.36</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>7</v>
       </c>
@@ -3296,58 +3446,62 @@
         <v>2.78</v>
       </c>
       <c r="H38">
+        <f t="shared" si="0"/>
+        <v>7.2899999999999991</v>
+      </c>
+      <c r="I38">
         <v>44</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>1107</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>2015</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>4218</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>8.5</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>20</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>8.1</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>178</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>68</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>3.6</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>69</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>0.51</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>10</v>
       </c>
-      <c r="V38">
+      <c r="W38">
         <v>22.1</v>
       </c>
-      <c r="W38">
+      <c r="X38">
         <v>0.123</v>
       </c>
-      <c r="X38">
+      <c r="Y38">
         <v>20.32</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -3370,58 +3524,62 @@
         <v>2.56</v>
       </c>
       <c r="H39">
+        <f t="shared" si="0"/>
+        <v>7.26</v>
+      </c>
+      <c r="I39">
         <v>51</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>1107</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>2093</v>
       </c>
-      <c r="K39">
+      <c r="L39">
         <v>4229</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>23</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>10.7</v>
       </c>
-      <c r="O39">
+      <c r="P39">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>180</v>
       </c>
-      <c r="Q39">
+      <c r="R39">
         <v>71</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>3.5</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>242</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>0.26</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>5</v>
       </c>
-      <c r="V39">
+      <c r="W39">
         <v>22.8</v>
       </c>
-      <c r="W39">
+      <c r="X39">
         <v>0.127</v>
       </c>
-      <c r="X39">
+      <c r="Y39">
         <v>21.92</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -3444,58 +3602,62 @@
         <v>2.35</v>
       </c>
       <c r="H40">
+        <f t="shared" si="0"/>
+        <v>7.1899999999999995</v>
+      </c>
+      <c r="I40">
         <v>36</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>949</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>2112</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>3921</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>8.6</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>21</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>8.1</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>2.1</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>183</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>66</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>3.5</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>129</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>0.36</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>7</v>
       </c>
-      <c r="V40">
+      <c r="W40">
         <v>21.7</v>
       </c>
-      <c r="W40">
+      <c r="X40">
         <v>0.10100000000000001</v>
       </c>
-      <c r="X40">
+      <c r="Y40">
         <v>20.07</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -3518,58 +3680,62 @@
         <v>9.7899999999999991</v>
       </c>
       <c r="H41">
+        <f t="shared" si="0"/>
+        <v>19.619999999999997</v>
+      </c>
+      <c r="I41">
         <v>48</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>990</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>2125</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>3906</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>25</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>10.3</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>2</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>180</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>79</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>3.7</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>213</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>0.45</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>9</v>
       </c>
-      <c r="V41">
+      <c r="W41">
         <v>21.6</v>
       </c>
-      <c r="W41">
+      <c r="X41">
         <v>0.183</v>
       </c>
-      <c r="X41">
+      <c r="Y41">
         <v>20.58</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -3592,58 +3758,62 @@
         <v>4.18</v>
       </c>
       <c r="H42">
+        <f t="shared" si="0"/>
+        <v>11.58</v>
+      </c>
+      <c r="I42">
         <v>37</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>1179</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>1999</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>4271</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>28</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>11.8</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>2.1</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>191</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>78</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>3.9</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>240</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>0.46</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>9</v>
       </c>
-      <c r="V42">
+      <c r="W42">
         <v>22.2</v>
       </c>
-      <c r="W42">
+      <c r="X42">
         <v>0.155</v>
       </c>
-      <c r="X42">
+      <c r="Y42">
         <v>19.48</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -3666,58 +3836,62 @@
         <v>3.11</v>
       </c>
       <c r="H43">
+        <f t="shared" si="0"/>
+        <v>7.9599999999999991</v>
+      </c>
+      <c r="I43">
         <v>42</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>1292</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>2216</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>4671</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>28</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>12.4</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>207</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>79</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>4.0999999999999996</v>
       </c>
-      <c r="S43">
+      <c r="T43">
         <v>289</v>
       </c>
-      <c r="T43">
+      <c r="U43">
         <v>0.42</v>
       </c>
-      <c r="U43">
+      <c r="V43">
         <v>8</v>
       </c>
-      <c r="V43">
+      <c r="W43">
         <v>24.4</v>
       </c>
-      <c r="W43">
+      <c r="X43">
         <v>0.154</v>
       </c>
-      <c r="X43">
+      <c r="Y43">
         <v>20.75</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>20</v>
       </c>
@@ -3740,58 +3914,62 @@
         <v>3.38</v>
       </c>
       <c r="H44">
+        <f t="shared" si="0"/>
+        <v>13.52</v>
+      </c>
+      <c r="I44">
         <v>48</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>1314</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>2051</v>
       </c>
-      <c r="K44">
+      <c r="L44">
         <v>4544</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>8.6</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>43</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>11.4</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>2.7</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>192</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>78</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>4.5</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>305</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>0.44</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>9</v>
       </c>
-      <c r="V44">
+      <c r="W44">
         <v>23.9</v>
       </c>
-      <c r="W44">
+      <c r="X44">
         <v>0.16700000000000001</v>
       </c>
-      <c r="X44">
+      <c r="Y44">
         <v>20.32</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>21</v>
       </c>
@@ -3814,58 +3992,62 @@
         <v>2.64</v>
       </c>
       <c r="H45">
+        <f t="shared" si="0"/>
+        <v>5.83</v>
+      </c>
+      <c r="I45">
         <v>34</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>1005</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>2246</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>3913</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>31</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>10.9</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>1.9</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>189</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>73</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>3.8</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>220</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>0.36</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>7</v>
       </c>
-      <c r="V45">
+      <c r="W45">
         <v>22.1</v>
       </c>
-      <c r="W45">
+      <c r="X45">
         <v>0.16</v>
       </c>
-      <c r="X45">
+      <c r="Y45">
         <v>20.36</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -3888,58 +4070,62 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="H46">
+        <f t="shared" si="0"/>
+        <v>6.92</v>
+      </c>
+      <c r="I46">
         <v>39</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>1088</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>1992</v>
       </c>
-      <c r="K46">
+      <c r="L46">
         <v>4233</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>29</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>9.5</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>179</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>67</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>3.7</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>234</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>0.46</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>9</v>
       </c>
-      <c r="V46">
+      <c r="W46">
         <v>22</v>
       </c>
-      <c r="W46">
+      <c r="X46">
         <v>0.123</v>
       </c>
-      <c r="X46">
+      <c r="Y46">
         <v>20.32</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>23</v>
       </c>
@@ -3962,58 +4148,62 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="H47">
+        <f t="shared" si="0"/>
+        <v>7.7</v>
+      </c>
+      <c r="I47">
         <v>50</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>1414</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>2318</v>
       </c>
-      <c r="K47">
+      <c r="L47">
         <v>5020</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>34</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>11.7</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>2.6</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>211</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>74</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>4.2</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>292</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>0.45</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>9</v>
       </c>
-      <c r="V47">
+      <c r="W47">
         <v>26.3</v>
       </c>
-      <c r="W47">
+      <c r="X47">
         <v>0.127</v>
       </c>
-      <c r="X47">
+      <c r="Y47">
         <v>21.92</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -4036,58 +4226,62 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="H48">
+        <f t="shared" si="0"/>
+        <v>6.9599999999999991</v>
+      </c>
+      <c r="I48">
         <v>32</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>1048</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>2118</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>4105</v>
       </c>
-      <c r="L48">
+      <c r="M48">
         <v>8.6</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>30</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>12.2</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>2.1</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>181</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>69</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>3.7</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>306</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>0.36</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>7</v>
       </c>
-      <c r="V48">
+      <c r="W48">
         <v>22.7</v>
       </c>
-      <c r="W48">
+      <c r="X48">
         <v>0.10100000000000001</v>
       </c>
-      <c r="X48">
+      <c r="Y48">
         <v>20.07</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -4110,58 +4304,62 @@
         <v>2.13</v>
       </c>
       <c r="H49">
+        <f t="shared" si="0"/>
+        <v>6.47</v>
+      </c>
+      <c r="I49">
         <v>23</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>966</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>1486</v>
       </c>
-      <c r="K49">
+      <c r="L49">
         <v>2822</v>
       </c>
-      <c r="L49">
+      <c r="M49">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>28</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>8.6999999999999993</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>1.4</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>155</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>67</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>2.6</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>239</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>0.79</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>16</v>
       </c>
-      <c r="V49">
+      <c r="W49">
         <v>16.2</v>
       </c>
-      <c r="W49">
+      <c r="X49">
         <v>0.11600000000000001</v>
       </c>
-      <c r="X49">
+      <c r="Y49">
         <v>19.53</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -4184,58 +4382,62 @@
         <v>1.62</v>
       </c>
       <c r="H50">
+        <f t="shared" si="0"/>
+        <v>4.87</v>
+      </c>
+      <c r="I50">
         <v>20</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>1008</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>1578</v>
       </c>
-      <c r="K50">
+      <c r="L50">
         <v>2865</v>
       </c>
-      <c r="L50">
+      <c r="M50">
         <v>8.5</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>19</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>6.7</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>1.5</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>167</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>61</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>2.7</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>74</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>0.85</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>17</v>
       </c>
-      <c r="V50">
+      <c r="W50">
         <v>16.8</v>
       </c>
-      <c r="W50">
+      <c r="X50">
         <v>0.17799999999999999</v>
       </c>
-      <c r="X50">
+      <c r="Y50">
         <v>19.25</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -4258,58 +4460,62 @@
         <v>0.91</v>
       </c>
       <c r="H51">
+        <f t="shared" si="0"/>
+        <v>3.1100000000000003</v>
+      </c>
+      <c r="I51">
         <v>22</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>985</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>1663</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>2914</v>
       </c>
-      <c r="L51">
+      <c r="M51">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>30</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>10.3</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>1.4</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>164</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>67</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>2.7</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>176</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>0.85</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>17</v>
       </c>
-      <c r="V51">
+      <c r="W51">
         <v>17.100000000000001</v>
       </c>
-      <c r="W51">
+      <c r="X51">
         <v>0.16200000000000001</v>
       </c>
-      <c r="X51">
+      <c r="Y51">
         <v>20.58</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -4332,58 +4538,62 @@
         <v>2.69</v>
       </c>
       <c r="H52">
+        <f t="shared" si="0"/>
+        <v>10.17</v>
+      </c>
+      <c r="I52">
         <v>27</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>871</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>1686</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>2789</v>
       </c>
-      <c r="L52">
+      <c r="M52">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>32</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>8.8000000000000007</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>1.8</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>154</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>66</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>2.6</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>177</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>0.84</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>17</v>
       </c>
-      <c r="V52">
+      <c r="W52">
         <v>16.7</v>
       </c>
-      <c r="W52">
+      <c r="X52">
         <v>0.14899999999999999</v>
       </c>
-      <c r="X52">
+      <c r="Y52">
         <v>19.63</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -4406,58 +4616,62 @@
         <v>1.38</v>
       </c>
       <c r="H53">
+        <f t="shared" si="0"/>
+        <v>3.52</v>
+      </c>
+      <c r="I53">
         <v>24</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>898</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>1605</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>2790</v>
       </c>
-      <c r="L53">
+      <c r="M53">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>20</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>9</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>1.6</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>161</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>65</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>2.6</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>214</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>0.8</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>16</v>
       </c>
-      <c r="V53">
+      <c r="W53">
         <v>16.5</v>
       </c>
-      <c r="W53">
+      <c r="X53">
         <v>0.16700000000000001</v>
       </c>
-      <c r="X53">
+      <c r="Y53">
         <v>20.56</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -4480,58 +4694,62 @@
         <v>4.91</v>
       </c>
       <c r="H54">
+        <f t="shared" si="0"/>
+        <v>11.57</v>
+      </c>
+      <c r="I54">
         <v>31</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>889</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>1382</v>
       </c>
-      <c r="K54">
+      <c r="L54">
         <v>2842</v>
       </c>
-      <c r="L54">
+      <c r="M54">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>19</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>5.5</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>1.8</v>
       </c>
-      <c r="P54">
+      <c r="Q54">
         <v>150</v>
       </c>
-      <c r="Q54">
+      <c r="R54">
         <v>57</v>
       </c>
-      <c r="R54">
+      <c r="S54">
         <v>2.5</v>
       </c>
-      <c r="S54">
+      <c r="T54">
         <v>66</v>
       </c>
-      <c r="T54">
+      <c r="U54">
         <v>1.59</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>72</v>
       </c>
-      <c r="V54">
+      <c r="W54">
         <v>15.7</v>
       </c>
-      <c r="W54">
+      <c r="X54">
         <v>0.124</v>
       </c>
-      <c r="X54">
+      <c r="Y54">
         <v>19.64</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -4554,58 +4772,62 @@
         <v>1.52</v>
       </c>
       <c r="H55">
+        <f t="shared" si="0"/>
+        <v>5.92</v>
+      </c>
+      <c r="I55">
         <v>19</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>1022</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>1584</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>2975</v>
       </c>
-      <c r="L55">
+      <c r="M55">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>47</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>9.9</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>1.5</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>162</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>74</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>2.8</v>
       </c>
-      <c r="S55">
+      <c r="T55">
         <v>279</v>
       </c>
-      <c r="T55">
+      <c r="U55">
         <v>0.77</v>
       </c>
-      <c r="U55">
+      <c r="V55">
         <v>15</v>
       </c>
-      <c r="V55">
+      <c r="W55">
         <v>17.2</v>
       </c>
-      <c r="W55">
+      <c r="X55">
         <v>0.124</v>
       </c>
-      <c r="X55">
+      <c r="Y55">
         <v>20.03</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -4628,58 +4850,62 @@
         <v>2.02</v>
       </c>
       <c r="H56">
+        <f t="shared" si="0"/>
+        <v>11.02</v>
+      </c>
+      <c r="I56">
         <v>28</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>976</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>1559</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>2856</v>
       </c>
-      <c r="L56">
+      <c r="M56">
         <v>8.4</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>62</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>7.9</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>2</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>150</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>65</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>2.6</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>204</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <v>1.07</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>21</v>
       </c>
-      <c r="V56">
+      <c r="W56">
         <v>16.5</v>
       </c>
-      <c r="W56">
+      <c r="X56">
         <v>0.16700000000000001</v>
       </c>
-      <c r="X56">
+      <c r="Y56">
         <v>19.63</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -4702,58 +4928,62 @@
         <v>1.37</v>
       </c>
       <c r="H57">
+        <f t="shared" si="0"/>
+        <v>4.29</v>
+      </c>
+      <c r="I57">
         <v>18</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>865</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>1798</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>2791</v>
       </c>
-      <c r="L57">
+      <c r="M57">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>24</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>9</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>1.4</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>169</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>73</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>3</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>190</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>0.91</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>18</v>
       </c>
-      <c r="V57">
+      <c r="W57">
         <v>17.600000000000001</v>
       </c>
-      <c r="W57">
+      <c r="X57">
         <v>0.11600000000000001</v>
       </c>
-      <c r="X57">
+      <c r="Y57">
         <v>19.53</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -4776,58 +5006,62 @@
         <v>2.08</v>
       </c>
       <c r="H58">
+        <f t="shared" si="0"/>
+        <v>7.96</v>
+      </c>
+      <c r="I58">
         <v>20</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>880</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>1613</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>2688</v>
       </c>
-      <c r="L58">
+      <c r="M58">
         <v>8.6</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>31</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>8</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>1.6</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>147</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>65</v>
       </c>
-      <c r="R58">
+      <c r="S58">
         <v>2.6</v>
       </c>
-      <c r="S58">
+      <c r="T58">
         <v>189</v>
       </c>
-      <c r="T58">
+      <c r="U58">
         <v>0.8</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>16</v>
       </c>
-      <c r="V58">
+      <c r="W58">
         <v>16.2</v>
       </c>
-      <c r="W58">
+      <c r="X58">
         <v>0.17799999999999999</v>
       </c>
-      <c r="X58">
+      <c r="Y58">
         <v>19.25</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -4850,58 +5084,62 @@
         <v>3</v>
       </c>
       <c r="H59">
+        <f t="shared" si="0"/>
+        <v>7.69</v>
+      </c>
+      <c r="I59">
         <v>22</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>728</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>1515</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>2780</v>
       </c>
-      <c r="L59">
+      <c r="M59">
         <v>8.1</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>20</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>7.5</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>1.7</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>155</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>90</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>2.8</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>171</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <v>0.65</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>13</v>
       </c>
-      <c r="V59">
+      <c r="W59">
         <v>16.2</v>
       </c>
-      <c r="W59">
+      <c r="X59">
         <v>0.16200000000000001</v>
       </c>
-      <c r="X59">
+      <c r="Y59">
         <v>20.58</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>33</v>
       </c>
@@ -4924,58 +5162,62 @@
         <v>4.79</v>
       </c>
       <c r="H60">
+        <f t="shared" si="0"/>
+        <v>12.8</v>
+      </c>
+      <c r="I60">
         <v>25</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>875</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>1621</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>2640</v>
       </c>
-      <c r="L60">
+      <c r="M60">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>40</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>7.5</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>1.9</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>154</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>66</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>2.9</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>152</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <v>0.4</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>8</v>
       </c>
-      <c r="V60">
+      <c r="W60">
         <v>16</v>
       </c>
-      <c r="W60">
+      <c r="X60">
         <v>0.14899999999999999</v>
       </c>
-      <c r="X60">
+      <c r="Y60">
         <v>19.63</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -4998,58 +5240,62 @@
         <v>2.2200000000000002</v>
       </c>
       <c r="H61">
+        <f t="shared" si="0"/>
+        <v>4.03</v>
+      </c>
+      <c r="I61">
         <v>17</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>781</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>1814</v>
       </c>
-      <c r="K61">
+      <c r="L61">
         <v>2816</v>
       </c>
-      <c r="L61">
+      <c r="M61">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>31</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>9.4</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>1.4</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>162</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>67</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>2.8</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>266</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>0.35</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>7</v>
       </c>
-      <c r="V61">
+      <c r="W61">
         <v>17.8</v>
       </c>
-      <c r="W61">
+      <c r="X61">
         <v>0.16700000000000001</v>
       </c>
-      <c r="X61">
+      <c r="Y61">
         <v>20.56</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>22</v>
       </c>
@@ -5072,58 +5318,62 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="H62">
+        <f t="shared" si="0"/>
+        <v>7.0699999999999994</v>
+      </c>
+      <c r="I62">
         <v>22</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>836</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>1780</v>
       </c>
-      <c r="K62">
+      <c r="L62">
         <v>2856</v>
       </c>
-      <c r="L62">
+      <c r="M62">
         <v>8.6</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>26</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>7.9</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>2</v>
       </c>
-      <c r="P62">
+      <c r="Q62">
         <v>164</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>6</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>3</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>196</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <v>0.37</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>7</v>
       </c>
-      <c r="V62">
+      <c r="W62">
         <v>17.7</v>
       </c>
-      <c r="W62">
+      <c r="X62">
         <v>0.124</v>
       </c>
-      <c r="X62">
+      <c r="Y62">
         <v>19.64</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -5146,58 +5396,62 @@
         <v>1.47</v>
       </c>
       <c r="H63">
+        <f t="shared" si="0"/>
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="I63">
         <v>18</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>797</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>1773</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>2765</v>
       </c>
-      <c r="L63">
+      <c r="M63">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>23</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>8.6999999999999993</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>1.6</v>
       </c>
-      <c r="P63">
+      <c r="Q63">
         <v>162</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>73</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>3.1</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <v>207</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <v>0.83</v>
-      </c>
-      <c r="U63">
-        <v>17</v>
       </c>
       <c r="V63">
         <v>17</v>
       </c>
       <c r="W63">
+        <v>17</v>
+      </c>
+      <c r="X63">
         <v>0.124</v>
       </c>
-      <c r="X63">
+      <c r="Y63">
         <v>20.03</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -5220,58 +5474,62 @@
         <v>2.06</v>
       </c>
       <c r="H64">
+        <f t="shared" si="0"/>
+        <v>6.51</v>
+      </c>
+      <c r="I64">
         <v>17</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>867</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>1821</v>
       </c>
-      <c r="K64">
+      <c r="L64">
         <v>2839</v>
       </c>
-      <c r="L64">
+      <c r="M64">
         <v>8.6</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>43</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>9.1</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>1.6</v>
       </c>
-      <c r="P64">
+      <c r="Q64">
         <v>158</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>68</v>
       </c>
-      <c r="R64">
+      <c r="S64">
         <v>2.9</v>
       </c>
-      <c r="S64">
+      <c r="T64">
         <v>258</v>
       </c>
-      <c r="T64">
+      <c r="U64">
         <v>0.39</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>8</v>
       </c>
-      <c r="V64">
+      <c r="W64">
         <v>17.600000000000001</v>
       </c>
-      <c r="W64">
+      <c r="X64">
         <v>0.16700000000000001</v>
       </c>
-      <c r="X64">
+      <c r="Y64">
         <v>19.63</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -5294,58 +5552,62 @@
         <v>2.0099999999999998</v>
       </c>
       <c r="H65">
+        <f t="shared" si="0"/>
+        <v>5.42</v>
+      </c>
+      <c r="I65">
         <v>27</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>864</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>1744</v>
       </c>
-      <c r="K65">
+      <c r="L65">
         <v>3293</v>
       </c>
-      <c r="L65">
+      <c r="M65">
         <v>8.4</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>33</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>9.9</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P65">
+      <c r="Q65">
         <v>156</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>105</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <v>3</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <v>189</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <v>0.92</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>18</v>
       </c>
-      <c r="V65">
+      <c r="W65">
         <v>18.600000000000001</v>
       </c>
-      <c r="W65">
+      <c r="X65">
         <v>0.17299999999999999</v>
       </c>
-      <c r="X65">
+      <c r="Y65">
         <v>19.03</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>3</v>
       </c>
@@ -5368,58 +5630,62 @@
         <v>2.09</v>
       </c>
       <c r="H66">
+        <f t="shared" si="0"/>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="I66">
         <v>31</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>912</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>1869</v>
       </c>
-      <c r="K66">
+      <c r="L66">
         <v>3557</v>
       </c>
-      <c r="L66">
+      <c r="M66">
         <v>8.5</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>17</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>8</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P66">
+      <c r="Q66">
         <v>169</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>85</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <v>3.2</v>
       </c>
-      <c r="S66">
+      <c r="T66">
         <v>105</v>
       </c>
-      <c r="T66">
+      <c r="U66">
         <v>1</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>20</v>
       </c>
-      <c r="V66">
+      <c r="W66">
         <v>19.7</v>
       </c>
-      <c r="W66">
+      <c r="X66">
         <v>0.11799999999999999</v>
       </c>
-      <c r="X66">
+      <c r="Y66">
         <v>19.05</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -5442,58 +5708,62 @@
         <v>3.22</v>
       </c>
       <c r="H67">
+        <f t="shared" ref="H67:H96" si="1">F67+G67</f>
+        <v>8.75</v>
+      </c>
+      <c r="I67">
         <v>28</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>910</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>1782</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>3340</v>
       </c>
-      <c r="L67">
+      <c r="M67">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>37</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>11.3</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>1.6</v>
       </c>
-      <c r="P67">
+      <c r="Q67">
         <v>151</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>74</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <v>2.9</v>
       </c>
-      <c r="S67">
+      <c r="T67">
         <v>228</v>
       </c>
-      <c r="T67">
+      <c r="U67">
         <v>0.41</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>8</v>
       </c>
-      <c r="V67">
+      <c r="W67">
         <v>18.600000000000001</v>
       </c>
-      <c r="W67">
+      <c r="X67">
         <v>0.105</v>
       </c>
-      <c r="X67">
+      <c r="Y67">
         <v>19.89</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -5516,58 +5786,62 @@
         <v>2.64</v>
       </c>
       <c r="H68">
+        <f t="shared" si="1"/>
+        <v>10.91</v>
+      </c>
+      <c r="I68">
         <v>24</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>889</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>1833</v>
       </c>
-      <c r="K68">
+      <c r="L68">
         <v>3431</v>
       </c>
-      <c r="L68">
+      <c r="M68">
         <v>8.4</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>32</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>7.2</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P68">
+      <c r="Q68">
         <v>159</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <v>67</v>
       </c>
-      <c r="R68">
+      <c r="S68">
         <v>3.1</v>
       </c>
-      <c r="S68">
+      <c r="T68">
         <v>113</v>
       </c>
-      <c r="T68">
+      <c r="U68">
         <v>0.57999999999999996</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>12</v>
       </c>
-      <c r="V68">
+      <c r="W68">
         <v>19.2</v>
       </c>
-      <c r="W68">
+      <c r="X68">
         <v>0.16500000000000001</v>
       </c>
-      <c r="X68">
+      <c r="Y68">
         <v>18.84</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -5590,58 +5864,62 @@
         <v>2.13</v>
       </c>
       <c r="H69">
+        <f t="shared" si="1"/>
+        <v>3.74</v>
+      </c>
+      <c r="I69">
         <v>23</v>
       </c>
-      <c r="I69">
+      <c r="J69">
         <v>930</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>1581</v>
       </c>
-      <c r="K69">
+      <c r="L69">
         <v>3488</v>
       </c>
-      <c r="L69">
+      <c r="M69">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>37</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>10.5</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>1.9</v>
       </c>
-      <c r="P69">
+      <c r="Q69">
         <v>145</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>74</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <v>2.8</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <v>330</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <v>0.4</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>8</v>
       </c>
-      <c r="V69">
+      <c r="W69">
         <v>18.399999999999999</v>
       </c>
-      <c r="W69">
+      <c r="X69">
         <v>0.11700000000000001</v>
       </c>
-      <c r="X69">
+      <c r="Y69">
         <v>19.53</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -5664,58 +5942,62 @@
         <v>3.22</v>
       </c>
       <c r="H70">
+        <f t="shared" si="1"/>
+        <v>8.81</v>
+      </c>
+      <c r="I70">
         <v>28</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>852</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>1388</v>
       </c>
-      <c r="K70">
+      <c r="L70">
         <v>3289</v>
       </c>
-      <c r="L70">
+      <c r="M70">
         <v>8.4</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>24</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>6.6</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>2</v>
       </c>
-      <c r="P70">
+      <c r="Q70">
         <v>138</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>69</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <v>2.7</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <v>144</v>
       </c>
-      <c r="T70">
+      <c r="U70">
         <v>0.41</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>8</v>
       </c>
-      <c r="V70">
+      <c r="W70">
         <v>17</v>
       </c>
-      <c r="W70">
+      <c r="X70">
         <v>0.16300000000000001</v>
       </c>
-      <c r="X70">
+      <c r="Y70">
         <v>18.920000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -5738,58 +6020,62 @@
         <v>2.81</v>
       </c>
       <c r="H71">
+        <f t="shared" si="1"/>
+        <v>6.34</v>
+      </c>
+      <c r="I71">
         <v>26</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>860</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>1523</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>3489</v>
       </c>
-      <c r="L71">
+      <c r="M71">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>58</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>9.4</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>1.5</v>
       </c>
-      <c r="P71">
+      <c r="Q71">
         <v>146</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>69</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <v>2.9</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <v>375</v>
       </c>
-      <c r="T71">
+      <c r="U71">
         <v>0.38</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>8</v>
       </c>
-      <c r="V71">
+      <c r="W71">
         <v>18.600000000000001</v>
       </c>
-      <c r="W71">
+      <c r="X71">
         <v>0.127</v>
       </c>
-      <c r="X71">
+      <c r="Y71">
         <v>19.78</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -5812,58 +6098,62 @@
         <v>3.54</v>
       </c>
       <c r="H72">
+        <f t="shared" si="1"/>
+        <v>7.71</v>
+      </c>
+      <c r="I72">
         <v>24</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>848</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>1520</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>3258</v>
       </c>
-      <c r="L72">
+      <c r="M72">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>41</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>7.9</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>1.8</v>
       </c>
-      <c r="P72">
+      <c r="Q72">
         <v>147</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <v>70</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <v>2.8</v>
       </c>
-      <c r="S72">
+      <c r="T72">
         <v>293</v>
       </c>
-      <c r="T72">
+      <c r="U72">
         <v>0.53</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>11</v>
       </c>
-      <c r="V72">
+      <c r="W72">
         <v>17.399999999999999</v>
       </c>
-      <c r="W72">
+      <c r="X72">
         <v>0.14699999999999999</v>
       </c>
-      <c r="X72">
+      <c r="Y72">
         <v>19.149999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -5886,58 +6176,62 @@
         <v>1.63</v>
       </c>
       <c r="H73">
+        <f t="shared" si="1"/>
+        <v>4.33</v>
+      </c>
+      <c r="I73">
         <v>20</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>1020</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>1702</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>3449</v>
       </c>
-      <c r="L73">
+      <c r="M73">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>30</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>10.8</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>1.7</v>
       </c>
-      <c r="P73">
+      <c r="Q73">
         <v>158</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <v>75</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <v>3.4</v>
       </c>
-      <c r="S73">
+      <c r="T73">
         <v>235</v>
       </c>
-      <c r="T73">
+      <c r="U73">
         <v>0.45</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>9</v>
       </c>
-      <c r="V73">
+      <c r="W73">
         <v>19.100000000000001</v>
       </c>
-      <c r="W73">
+      <c r="X73">
         <v>0.17299999999999999</v>
       </c>
-      <c r="X73">
+      <c r="Y73">
         <v>19.03</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -5960,58 +6254,62 @@
         <v>1.8</v>
       </c>
       <c r="H74">
+        <f t="shared" si="1"/>
+        <v>6.38</v>
+      </c>
+      <c r="I74">
         <v>19</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>861</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>2141</v>
       </c>
-      <c r="K74">
+      <c r="L74">
         <v>3267</v>
       </c>
-      <c r="L74">
+      <c r="M74">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>27</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>9.6</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>1.7</v>
       </c>
-      <c r="P74">
+      <c r="Q74">
         <v>163</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <v>71</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <v>3.3</v>
       </c>
-      <c r="S74">
+      <c r="T74">
         <v>216</v>
       </c>
-      <c r="T74">
+      <c r="U74">
         <v>0.46</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>9</v>
       </c>
-      <c r="V74">
+      <c r="W74">
         <v>20.3</v>
       </c>
-      <c r="W74">
+      <c r="X74">
         <v>0.11799999999999999</v>
       </c>
-      <c r="X74">
+      <c r="Y74">
         <v>19.05</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -6034,58 +6332,62 @@
         <v>1.39</v>
       </c>
       <c r="H75">
+        <f t="shared" si="1"/>
+        <v>3.42</v>
+      </c>
+      <c r="I75">
         <v>21</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>818</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>1996</v>
       </c>
-      <c r="K75">
+      <c r="L75">
         <v>3015</v>
       </c>
-      <c r="L75">
+      <c r="M75">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>31</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>9.1999999999999993</v>
       </c>
-      <c r="O75">
+      <c r="P75">
         <v>1.4</v>
       </c>
-      <c r="P75">
+      <c r="Q75">
         <v>158</v>
       </c>
-      <c r="Q75">
+      <c r="R75">
         <v>70</v>
       </c>
-      <c r="R75">
+      <c r="S75">
         <v>3.1</v>
       </c>
-      <c r="S75">
+      <c r="T75">
         <v>251</v>
       </c>
-      <c r="T75">
+      <c r="U75">
         <v>0.39</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>8</v>
       </c>
-      <c r="V75">
+      <c r="W75">
         <v>19</v>
       </c>
-      <c r="W75">
+      <c r="X75">
         <v>0.105</v>
       </c>
-      <c r="X75">
+      <c r="Y75">
         <v>19.89</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>20</v>
       </c>
@@ -6108,58 +6410,62 @@
         <v>2</v>
       </c>
       <c r="H76">
+        <f t="shared" si="1"/>
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="I76">
         <v>22</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>951</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>1825</v>
       </c>
-      <c r="K76">
+      <c r="L76">
         <v>3456</v>
       </c>
-      <c r="L76">
+      <c r="M76">
         <v>8.5</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>63</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>9.9</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>2</v>
       </c>
-      <c r="P76">
+      <c r="Q76">
         <v>157</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <v>72</v>
       </c>
-      <c r="R76">
+      <c r="S76">
         <v>3.4</v>
       </c>
-      <c r="S76">
+      <c r="T76">
         <v>250</v>
       </c>
-      <c r="T76">
+      <c r="U76">
         <v>0.54</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>11</v>
       </c>
-      <c r="V76">
+      <c r="W76">
         <v>19.2</v>
       </c>
-      <c r="W76">
+      <c r="X76">
         <v>0.16500000000000001</v>
       </c>
-      <c r="X76">
+      <c r="Y76">
         <v>18.84</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -6182,58 +6488,62 @@
         <v>2.33</v>
       </c>
       <c r="H77">
+        <f t="shared" si="1"/>
+        <v>4.82</v>
+      </c>
+      <c r="I77">
         <v>23</v>
       </c>
-      <c r="I77">
+      <c r="J77">
         <v>827</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>2053</v>
       </c>
-      <c r="K77">
+      <c r="L77">
         <v>3320</v>
       </c>
-      <c r="L77">
+      <c r="M77">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>24</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>9.5</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>1.6</v>
       </c>
-      <c r="P77">
+      <c r="Q77">
         <v>158</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <v>70</v>
       </c>
-      <c r="R77">
+      <c r="S77">
         <v>3.2</v>
       </c>
-      <c r="S77">
+      <c r="T77">
         <v>202</v>
       </c>
-      <c r="T77">
+      <c r="U77">
         <v>0.4</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>8</v>
       </c>
-      <c r="V77">
+      <c r="W77">
         <v>20</v>
       </c>
-      <c r="W77">
+      <c r="X77">
         <v>0.11700000000000001</v>
       </c>
-      <c r="X77">
+      <c r="Y77">
         <v>19.53</v>
       </c>
     </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>22</v>
       </c>
@@ -6256,58 +6566,62 @@
         <v>2.08</v>
       </c>
       <c r="H78">
+        <f t="shared" si="1"/>
+        <v>9.7199999999999989</v>
+      </c>
+      <c r="I78">
         <v>21</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>950</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>1855</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>3389</v>
       </c>
-      <c r="L78">
+      <c r="M78">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>49</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>9.6</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>1.8</v>
       </c>
-      <c r="P78">
+      <c r="Q78">
         <v>151</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <v>67</v>
       </c>
-      <c r="R78">
+      <c r="S78">
         <v>3.3</v>
       </c>
-      <c r="S78">
+      <c r="T78">
         <v>258</v>
       </c>
-      <c r="T78">
+      <c r="U78">
         <v>0.47</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>9</v>
       </c>
-      <c r="V78">
+      <c r="W78">
         <v>19.2</v>
       </c>
-      <c r="W78">
+      <c r="X78">
         <v>0.16300000000000001</v>
       </c>
-      <c r="X78">
+      <c r="Y78">
         <v>18.920000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>23</v>
       </c>
@@ -6330,58 +6644,62 @@
         <v>2.38</v>
       </c>
       <c r="H79">
+        <f t="shared" si="1"/>
+        <v>5.41</v>
+      </c>
+      <c r="I79">
         <v>25</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>833</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>2010</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>3385</v>
       </c>
-      <c r="L79">
+      <c r="M79">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>43</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>10.4</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>1.6</v>
       </c>
-      <c r="P79">
+      <c r="Q79">
         <v>148</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <v>75</v>
       </c>
-      <c r="R79">
+      <c r="S79">
         <v>3.2</v>
       </c>
-      <c r="S79">
+      <c r="T79">
         <v>192</v>
       </c>
-      <c r="T79">
+      <c r="U79">
         <v>0.46</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>9</v>
       </c>
-      <c r="V79">
+      <c r="W79">
         <v>19.5</v>
       </c>
-      <c r="W79">
+      <c r="X79">
         <v>0.127</v>
       </c>
-      <c r="X79">
+      <c r="Y79">
         <v>19.78</v>
       </c>
     </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -6404,58 +6722,62 @@
         <v>4.04</v>
       </c>
       <c r="H80">
+        <f t="shared" si="1"/>
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="I80">
         <v>18</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>793</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>2031</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>3046</v>
       </c>
-      <c r="L80">
+      <c r="M80">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M80">
+      <c r="N80">
         <v>37</v>
       </c>
-      <c r="N80">
+      <c r="O80">
         <v>9.1999999999999993</v>
       </c>
-      <c r="O80">
+      <c r="P80">
         <v>1.5</v>
       </c>
-      <c r="P80">
+      <c r="Q80">
         <v>155</v>
       </c>
-      <c r="Q80">
+      <c r="R80">
         <v>67</v>
       </c>
-      <c r="R80">
+      <c r="S80">
         <v>3.2</v>
       </c>
-      <c r="S80">
+      <c r="T80">
         <v>264</v>
       </c>
-      <c r="T80">
+      <c r="U80">
         <v>0.42</v>
       </c>
-      <c r="U80">
+      <c r="V80">
         <v>8</v>
       </c>
-      <c r="V80">
+      <c r="W80">
         <v>18.899999999999999</v>
       </c>
-      <c r="W80">
+      <c r="X80">
         <v>0.14699999999999999</v>
       </c>
-      <c r="X80">
+      <c r="Y80">
         <v>19.149999999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -6478,58 +6800,62 @@
         <v>1.65</v>
       </c>
       <c r="H81">
+        <f t="shared" si="1"/>
+        <v>5.21</v>
+      </c>
+      <c r="I81">
         <v>37</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>1115</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>1537</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>3876</v>
       </c>
-      <c r="L81">
+      <c r="M81">
         <v>8.6</v>
       </c>
-      <c r="M81">
+      <c r="N81">
         <v>21</v>
       </c>
-      <c r="N81">
+      <c r="O81">
         <v>8.6</v>
       </c>
-      <c r="O81">
+      <c r="P81">
         <v>1.9</v>
       </c>
-      <c r="P81">
+      <c r="Q81">
         <v>161</v>
       </c>
-      <c r="Q81">
+      <c r="R81">
         <v>67</v>
       </c>
-      <c r="R81">
+      <c r="S81">
         <v>3.1</v>
       </c>
-      <c r="S81">
+      <c r="T81">
         <v>195</v>
       </c>
-      <c r="T81">
+      <c r="U81">
         <v>0.48</v>
       </c>
-      <c r="U81">
+      <c r="V81">
         <v>10</v>
       </c>
-      <c r="V81">
+      <c r="W81">
         <v>19.100000000000001</v>
       </c>
-      <c r="W81">
+      <c r="X81">
         <v>0.17899999999999999</v>
       </c>
-      <c r="X81">
+      <c r="Y81">
         <v>20.11</v>
       </c>
     </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>3</v>
       </c>
@@ -6552,58 +6878,62 @@
         <v>1.43</v>
       </c>
       <c r="H82">
+        <f t="shared" si="1"/>
+        <v>5.63</v>
+      </c>
+      <c r="I82">
         <v>36</v>
       </c>
-      <c r="I82">
+      <c r="J82">
         <v>1145</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>1608</v>
       </c>
-      <c r="K82">
+      <c r="L82">
         <v>3692</v>
       </c>
-      <c r="L82">
+      <c r="M82">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M82">
+      <c r="N82">
         <v>27</v>
       </c>
-      <c r="N82">
+      <c r="O82">
         <v>10</v>
       </c>
-      <c r="O82">
+      <c r="P82">
         <v>2.1</v>
       </c>
-      <c r="P82">
+      <c r="Q82">
         <v>163</v>
       </c>
-      <c r="Q82">
+      <c r="R82">
         <v>63</v>
       </c>
-      <c r="R82">
+      <c r="S82">
         <v>3.1</v>
       </c>
-      <c r="S82">
+      <c r="T82">
         <v>202</v>
       </c>
-      <c r="T82">
+      <c r="U82">
         <v>0.53</v>
       </c>
-      <c r="U82">
+      <c r="V82">
         <v>11</v>
       </c>
-      <c r="V82">
+      <c r="W82">
         <v>19</v>
       </c>
-      <c r="W82">
+      <c r="X82">
         <v>0.106</v>
       </c>
-      <c r="X82">
+      <c r="Y82">
         <v>19.18</v>
       </c>
     </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -6626,58 +6956,62 @@
         <v>1.71</v>
       </c>
       <c r="H83">
+        <f t="shared" si="1"/>
+        <v>4.84</v>
+      </c>
+      <c r="I83">
         <v>39</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>1158</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>1596</v>
       </c>
-      <c r="K83">
+      <c r="L83">
         <v>3538</v>
       </c>
-      <c r="L83">
+      <c r="M83">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M83">
+      <c r="N83">
         <v>35</v>
       </c>
-      <c r="N83">
+      <c r="O83">
         <v>9.4</v>
       </c>
-      <c r="O83">
+      <c r="P83">
         <v>1.8</v>
       </c>
-      <c r="P83">
+      <c r="Q83">
         <v>170</v>
       </c>
-      <c r="Q83">
+      <c r="R83">
         <v>66</v>
       </c>
-      <c r="R83">
+      <c r="S83">
         <v>3.3</v>
       </c>
-      <c r="S83">
+      <c r="T83">
         <v>274</v>
       </c>
-      <c r="T83">
+      <c r="U83">
         <v>0.5</v>
       </c>
-      <c r="U83">
+      <c r="V83">
         <v>10</v>
       </c>
-      <c r="V83">
+      <c r="W83">
         <v>19.2</v>
       </c>
-      <c r="W83">
+      <c r="X83">
         <v>0.16400000000000001</v>
       </c>
-      <c r="X83">
+      <c r="Y83">
         <v>19.920000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -6700,58 +7034,62 @@
         <v>1.72</v>
       </c>
       <c r="H84">
+        <f t="shared" si="1"/>
+        <v>7.2299999999999995</v>
+      </c>
+      <c r="I84">
         <v>37</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>1153</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>1743</v>
       </c>
-      <c r="K84">
+      <c r="L84">
         <v>4124</v>
       </c>
-      <c r="L84">
+      <c r="M84">
         <v>8.6</v>
       </c>
-      <c r="M84">
+      <c r="N84">
         <v>22</v>
       </c>
-      <c r="N84">
+      <c r="O84">
         <v>9.5</v>
       </c>
-      <c r="O84">
+      <c r="P84">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P84">
+      <c r="Q84">
         <v>166</v>
       </c>
-      <c r="Q84">
+      <c r="R84">
         <v>69</v>
       </c>
-      <c r="R84">
+      <c r="S84">
         <v>3.3</v>
       </c>
-      <c r="S84">
+      <c r="T84">
         <v>96</v>
       </c>
-      <c r="T84">
+      <c r="U84">
         <v>0.6</v>
       </c>
-      <c r="U84">
+      <c r="V84">
         <v>12</v>
       </c>
-      <c r="V84">
+      <c r="W84">
         <v>20.5</v>
       </c>
-      <c r="W84">
+      <c r="X84">
         <v>0.10100000000000001</v>
       </c>
-      <c r="X84">
+      <c r="Y84">
         <v>20.25</v>
       </c>
     </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -6774,58 +7112,62 @@
         <v>2.08</v>
       </c>
       <c r="H85">
+        <f t="shared" si="1"/>
+        <v>5.9399999999999995</v>
+      </c>
+      <c r="I85">
         <v>45</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>1168</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>1835</v>
       </c>
-      <c r="K85">
+      <c r="L85">
         <v>4277</v>
       </c>
-      <c r="L85">
+      <c r="M85">
         <v>8.9</v>
       </c>
-      <c r="M85">
+      <c r="N85">
         <v>21</v>
       </c>
-      <c r="N85">
+      <c r="O85">
         <v>10.6</v>
       </c>
-      <c r="O85">
+      <c r="P85">
         <v>1.9</v>
       </c>
-      <c r="P85">
+      <c r="Q85">
         <v>188</v>
       </c>
-      <c r="Q85">
+      <c r="R85">
         <v>73</v>
       </c>
-      <c r="R85">
+      <c r="S85">
         <v>3.4</v>
       </c>
-      <c r="S85">
+      <c r="T85">
         <v>301</v>
       </c>
-      <c r="T85">
+      <c r="U85">
         <v>0.86</v>
       </c>
-      <c r="U85">
+      <c r="V85">
         <v>17</v>
       </c>
-      <c r="V85">
+      <c r="W85">
         <v>22.1</v>
       </c>
-      <c r="W85">
+      <c r="X85">
         <v>0.11899999999999999</v>
       </c>
-      <c r="X85">
+      <c r="Y85">
         <v>20.38</v>
       </c>
     </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -6848,58 +7190,62 @@
         <v>1.51</v>
       </c>
       <c r="H86">
+        <f t="shared" si="1"/>
+        <v>5.17</v>
+      </c>
+      <c r="I86">
         <v>32</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>1056</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>1927</v>
       </c>
-      <c r="K86">
+      <c r="L86">
         <v>4514</v>
       </c>
-      <c r="L86">
+      <c r="M86">
         <v>8.6</v>
       </c>
-      <c r="M86">
+      <c r="N86">
         <v>16</v>
       </c>
-      <c r="N86">
+      <c r="O86">
         <v>7.4</v>
       </c>
-      <c r="O86">
+      <c r="P86">
         <v>1.9</v>
       </c>
-      <c r="P86">
+      <c r="Q86">
         <v>195</v>
       </c>
-      <c r="Q86">
+      <c r="R86">
         <v>66</v>
       </c>
-      <c r="R86">
+      <c r="S86">
         <v>3.6</v>
       </c>
-      <c r="S86">
+      <c r="T86">
         <v>98</v>
       </c>
-      <c r="T86">
+      <c r="U86">
         <v>0.99</v>
       </c>
-      <c r="U86">
+      <c r="V86">
         <v>20</v>
       </c>
-      <c r="V86">
+      <c r="W86">
         <v>22.5</v>
       </c>
-      <c r="W86">
+      <c r="X86">
         <v>0.151</v>
       </c>
-      <c r="X86">
+      <c r="Y86">
         <v>19.62</v>
       </c>
     </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -6922,58 +7268,62 @@
         <v>1.74</v>
       </c>
       <c r="H87">
+        <f t="shared" si="1"/>
+        <v>5.8</v>
+      </c>
+      <c r="I87">
         <v>36</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>1065</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>1824</v>
       </c>
-      <c r="K87">
+      <c r="L87">
         <v>4431</v>
       </c>
-      <c r="L87">
+      <c r="M87">
         <v>8.6</v>
       </c>
-      <c r="M87">
+      <c r="N87">
         <v>31</v>
       </c>
-      <c r="N87">
+      <c r="O87">
         <v>8.9</v>
       </c>
-      <c r="O87">
+      <c r="P87">
         <v>1.9</v>
       </c>
-      <c r="P87">
+      <c r="Q87">
         <v>186</v>
       </c>
-      <c r="Q87">
+      <c r="R87">
         <v>69</v>
       </c>
-      <c r="R87">
+      <c r="S87">
         <v>3.4</v>
       </c>
-      <c r="S87">
+      <c r="T87">
         <v>244</v>
       </c>
-      <c r="T87">
+      <c r="U87">
         <v>1.01</v>
       </c>
-      <c r="U87">
+      <c r="V87">
         <v>20</v>
       </c>
-      <c r="V87">
+      <c r="W87">
         <v>22.2</v>
       </c>
-      <c r="W87">
+      <c r="X87">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="X87">
+      <c r="Y87">
         <v>20.239999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -6996,58 +7346,62 @@
         <v>1.47</v>
       </c>
       <c r="H88">
+        <f t="shared" si="1"/>
+        <v>6.42</v>
+      </c>
+      <c r="I88">
         <v>49</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>1171</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>1836</v>
       </c>
-      <c r="K88">
+      <c r="L88">
         <v>4227</v>
       </c>
-      <c r="L88">
+      <c r="M88">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M88">
+      <c r="N88">
         <v>22</v>
       </c>
-      <c r="N88">
+      <c r="O88">
         <v>10.4</v>
       </c>
-      <c r="O88">
+      <c r="P88">
         <v>2.4</v>
       </c>
-      <c r="P88">
+      <c r="Q88">
         <v>190</v>
       </c>
-      <c r="Q88">
+      <c r="R88">
         <v>71</v>
       </c>
-      <c r="R88">
+      <c r="S88">
         <v>3.5</v>
       </c>
-      <c r="S88">
+      <c r="T88">
         <v>240</v>
       </c>
-      <c r="T88">
+      <c r="U88">
         <v>1.1299999999999999</v>
       </c>
-      <c r="U88">
+      <c r="V88">
         <v>23</v>
       </c>
-      <c r="V88">
+      <c r="W88">
         <v>21.4</v>
       </c>
-      <c r="W88">
+      <c r="X88">
         <v>0.10299999999999999</v>
       </c>
-      <c r="X88">
+      <c r="Y88">
         <v>19.850000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -7070,58 +7424,62 @@
         <v>2.16</v>
       </c>
       <c r="H89">
+        <f t="shared" si="1"/>
+        <v>5.16</v>
+      </c>
+      <c r="I89">
         <v>29</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>1032</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>1846</v>
       </c>
-      <c r="K89">
+      <c r="L89">
         <v>3809</v>
       </c>
-      <c r="L89">
+      <c r="M89">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M89">
+      <c r="N89">
         <v>30</v>
       </c>
-      <c r="N89">
+      <c r="O89">
         <v>10.199999999999999</v>
       </c>
-      <c r="O89">
+      <c r="P89">
         <v>1.8</v>
       </c>
-      <c r="P89">
+      <c r="Q89">
         <v>172</v>
       </c>
-      <c r="Q89">
+      <c r="R89">
         <v>65</v>
       </c>
-      <c r="R89">
+      <c r="S89">
         <v>3.4</v>
       </c>
-      <c r="S89">
+      <c r="T89">
         <v>259</v>
       </c>
-      <c r="T89">
+      <c r="U89">
         <v>0.46</v>
       </c>
-      <c r="U89">
+      <c r="V89">
         <v>9</v>
       </c>
-      <c r="V89">
+      <c r="W89">
         <v>20.3</v>
       </c>
-      <c r="W89">
+      <c r="X89">
         <v>0.17899999999999999</v>
       </c>
-      <c r="X89">
+      <c r="Y89">
         <v>20.11</v>
       </c>
     </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -7144,58 +7502,62 @@
         <v>4.58</v>
       </c>
       <c r="H90">
+        <f t="shared" si="1"/>
+        <v>10.3</v>
+      </c>
+      <c r="I90">
         <v>29</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>864</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>2060</v>
       </c>
-      <c r="K90">
+      <c r="L90">
         <v>3151</v>
       </c>
-      <c r="L90">
+      <c r="M90">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M90">
+      <c r="N90">
         <v>23</v>
       </c>
-      <c r="N90">
+      <c r="O90">
         <v>7</v>
       </c>
-      <c r="O90">
+      <c r="P90">
         <v>3.1</v>
       </c>
-      <c r="P90">
+      <c r="Q90">
         <v>166</v>
       </c>
-      <c r="Q90">
+      <c r="R90">
         <v>61</v>
       </c>
-      <c r="R90">
+      <c r="S90">
         <v>3.4</v>
       </c>
-      <c r="S90">
+      <c r="T90">
         <v>104</v>
       </c>
-      <c r="T90">
+      <c r="U90">
         <v>0.45</v>
       </c>
-      <c r="U90">
+      <c r="V90">
         <v>9</v>
       </c>
-      <c r="V90">
+      <c r="W90">
         <v>19.399999999999999</v>
       </c>
-      <c r="W90">
+      <c r="X90">
         <v>0.106</v>
       </c>
-      <c r="X90">
+      <c r="Y90">
         <v>19.18</v>
       </c>
     </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -7218,58 +7580,62 @@
         <v>2.27</v>
       </c>
       <c r="H91">
+        <f t="shared" si="1"/>
+        <v>3.92</v>
+      </c>
+      <c r="I91">
         <v>27</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>1019</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>1983</v>
       </c>
-      <c r="K91">
+      <c r="L91">
         <v>3869</v>
       </c>
-      <c r="L91">
+      <c r="M91">
         <v>8.4</v>
       </c>
-      <c r="M91">
+      <c r="N91">
         <v>22</v>
       </c>
-      <c r="N91">
+      <c r="O91">
         <v>8.8000000000000007</v>
       </c>
-      <c r="O91">
+      <c r="P91">
         <v>3.5</v>
       </c>
-      <c r="P91">
+      <c r="Q91">
         <v>172</v>
       </c>
-      <c r="Q91">
+      <c r="R91">
         <v>67</v>
       </c>
-      <c r="R91">
+      <c r="S91">
         <v>3.4</v>
       </c>
-      <c r="S91">
+      <c r="T91">
         <v>134</v>
       </c>
-      <c r="T91">
+      <c r="U91">
         <v>0.4</v>
       </c>
-      <c r="U91">
+      <c r="V91">
         <v>8</v>
       </c>
-      <c r="V91">
+      <c r="W91">
         <v>21.5</v>
       </c>
-      <c r="W91">
+      <c r="X91">
         <v>0.16400000000000001</v>
       </c>
-      <c r="X91">
+      <c r="Y91">
         <v>19.920000000000002</v>
       </c>
     </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>20</v>
       </c>
@@ -7292,58 +7658,62 @@
         <v>1.91</v>
       </c>
       <c r="H92">
+        <f t="shared" si="1"/>
+        <v>7.15</v>
+      </c>
+      <c r="I92">
         <v>31</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>1059</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>2418</v>
       </c>
-      <c r="K92">
+      <c r="L92">
         <v>4277</v>
       </c>
-      <c r="L92">
+      <c r="M92">
         <v>8.6</v>
       </c>
-      <c r="M92">
+      <c r="N92">
         <v>54</v>
       </c>
-      <c r="N92">
+      <c r="O92">
         <v>10.4</v>
       </c>
-      <c r="O92">
+      <c r="P92">
         <v>2.4</v>
       </c>
-      <c r="P92">
+      <c r="Q92">
         <v>201</v>
       </c>
-      <c r="Q92">
+      <c r="R92">
         <v>67</v>
       </c>
-      <c r="R92">
+      <c r="S92">
         <v>4.0999999999999996</v>
       </c>
-      <c r="S92">
+      <c r="T92">
         <v>304</v>
       </c>
-      <c r="T92">
+      <c r="U92">
         <v>0.4</v>
       </c>
-      <c r="U92">
+      <c r="V92">
         <v>8</v>
       </c>
-      <c r="V92">
+      <c r="W92">
         <v>24.4</v>
       </c>
-      <c r="W92">
+      <c r="X92">
         <v>0.10100000000000001</v>
       </c>
-      <c r="X92">
+      <c r="Y92">
         <v>20.25</v>
       </c>
     </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>21</v>
       </c>
@@ -7366,58 +7736,62 @@
         <v>2.23</v>
       </c>
       <c r="H93">
+        <f t="shared" si="1"/>
+        <v>3.66</v>
+      </c>
+      <c r="I93">
         <v>32</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>1077</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>2340</v>
       </c>
-      <c r="K93">
+      <c r="L93">
         <v>3990</v>
       </c>
-      <c r="L93">
+      <c r="M93">
         <v>8.5</v>
       </c>
-      <c r="M93">
+      <c r="N93">
         <v>29</v>
       </c>
-      <c r="N93">
+      <c r="O93">
         <v>9.9</v>
       </c>
-      <c r="O93">
+      <c r="P93">
         <v>1.8</v>
       </c>
-      <c r="P93">
+      <c r="Q93">
         <v>185</v>
       </c>
-      <c r="Q93">
+      <c r="R93">
         <v>65</v>
       </c>
-      <c r="R93">
+      <c r="S93">
         <v>3.7</v>
       </c>
-      <c r="S93">
+      <c r="T93">
         <v>210</v>
       </c>
-      <c r="T93">
+      <c r="U93">
         <v>0.46</v>
       </c>
-      <c r="U93">
+      <c r="V93">
         <v>9</v>
       </c>
-      <c r="V93">
+      <c r="W93">
         <v>23.2</v>
       </c>
-      <c r="W93">
+      <c r="X93">
         <v>0.11899999999999999</v>
       </c>
-      <c r="X93">
+      <c r="Y93">
         <v>20.38</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>22</v>
       </c>
@@ -7440,58 +7814,62 @@
         <v>2.23</v>
       </c>
       <c r="H94">
+        <f t="shared" si="1"/>
+        <v>6.7899999999999991</v>
+      </c>
+      <c r="I94">
         <v>28</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>874</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>2221</v>
       </c>
-      <c r="K94">
+      <c r="L94">
         <v>4150</v>
       </c>
-      <c r="L94">
+      <c r="M94">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M94">
+      <c r="N94">
         <v>32</v>
       </c>
-      <c r="N94">
+      <c r="O94">
         <v>8.9</v>
       </c>
-      <c r="O94">
+      <c r="P94">
         <v>2</v>
       </c>
-      <c r="P94">
+      <c r="Q94">
         <v>179</v>
       </c>
-      <c r="Q94">
+      <c r="R94">
         <v>61</v>
       </c>
-      <c r="R94">
+      <c r="S94">
         <v>3.6</v>
       </c>
-      <c r="S94">
+      <c r="T94">
         <v>192</v>
       </c>
-      <c r="T94">
+      <c r="U94">
         <v>0.47</v>
       </c>
-      <c r="U94">
+      <c r="V94">
         <v>9</v>
       </c>
-      <c r="V94">
+      <c r="W94">
         <v>22.8</v>
       </c>
-      <c r="W94">
+      <c r="X94">
         <v>0.151</v>
       </c>
-      <c r="X94">
+      <c r="Y94">
         <v>19.62</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>23</v>
       </c>
@@ -7514,58 +7892,62 @@
         <v>1.33</v>
       </c>
       <c r="H95">
+        <f t="shared" si="1"/>
+        <v>4.3599999999999994</v>
+      </c>
+      <c r="I95">
         <v>29</v>
       </c>
-      <c r="I95">
+      <c r="J95">
         <v>996</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>2043</v>
       </c>
-      <c r="K95">
+      <c r="L95">
         <v>4476</v>
       </c>
-      <c r="L95">
+      <c r="M95">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M95">
+      <c r="N95">
         <v>38</v>
       </c>
-      <c r="N95">
+      <c r="O95">
         <v>10.9</v>
       </c>
-      <c r="O95">
+      <c r="P95">
         <v>2.1</v>
       </c>
-      <c r="P95">
+      <c r="Q95">
         <v>174</v>
       </c>
-      <c r="Q95">
+      <c r="R95">
         <v>63</v>
       </c>
-      <c r="R95">
+      <c r="S95">
         <v>3.4</v>
       </c>
-      <c r="S95">
+      <c r="T95">
         <v>231</v>
       </c>
-      <c r="T95">
+      <c r="U95">
         <v>0.44</v>
       </c>
-      <c r="U95">
+      <c r="V95">
         <v>9</v>
       </c>
-      <c r="V95">
+      <c r="W95">
         <v>23.1</v>
       </c>
-      <c r="W95">
+      <c r="X95">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="X95">
+      <c r="Y95">
         <v>20.239999999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>24</v>
       </c>
@@ -7588,54 +7970,58 @@
         <v>18.48</v>
       </c>
       <c r="H96">
+        <f t="shared" si="1"/>
+        <v>35.74</v>
+      </c>
+      <c r="I96">
         <v>25</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>955</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>2308</v>
       </c>
-      <c r="K96">
+      <c r="L96">
         <v>3626</v>
       </c>
-      <c r="L96">
+      <c r="M96">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M96">
+      <c r="N96">
         <v>25</v>
       </c>
-      <c r="N96">
+      <c r="O96">
         <v>7.9</v>
       </c>
-      <c r="O96">
+      <c r="P96">
         <v>1.9</v>
       </c>
-      <c r="P96">
+      <c r="Q96">
         <v>181</v>
       </c>
-      <c r="Q96">
+      <c r="R96">
         <v>59</v>
       </c>
-      <c r="R96">
+      <c r="S96">
         <v>3.6</v>
       </c>
-      <c r="S96">
+      <c r="T96">
         <v>191</v>
       </c>
-      <c r="T96">
+      <c r="U96">
         <v>0.46</v>
       </c>
-      <c r="U96">
+      <c r="V96">
         <v>9</v>
       </c>
-      <c r="V96">
+      <c r="W96">
         <v>21.9</v>
       </c>
-      <c r="W96">
+      <c r="X96">
         <v>0.10299999999999999</v>
       </c>
-      <c r="X96">
+      <c r="Y96">
         <v>19.850000000000001</v>
       </c>
     </row>
